--- a/data klasifikasi (version 1).xlsx
+++ b/data klasifikasi (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINOVPROJECT\skripsi ilham\Skripsi-Aksara-Bima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE94DDD7-FB88-4F94-BB05-35C731F8FFDC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCEACE4-D8F2-4BD2-B95F-F9C2B45A5854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{959F421C-5A5E-4009-AD8F-A914032E0B61}"/>
   </bookViews>
@@ -854,10 +854,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
+      <c14:style val="103"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="2"/>
+      <c:style val="3"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -882,11 +882,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ID"/>
-              <a:t>skenario radius 9 dengan variasi size</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-ID" baseline="0"/>
-              <a:t> image</a:t>
+              <a:t>Skenario zona dengan ukuran citra 32x32 pixcel</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -924,7 +920,7 @@
     <c:plotArea>
       <c:layout/>
       <c:barChart>
-        <c:barDir val="col"/>
+        <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
@@ -943,7 +939,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="56000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -1073,8 +1071,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:shade val="83000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1205,8 +1203,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent6">
-                <a:lumMod val="60000"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="90000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1337,9 +1335,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent4">
-                <a:lumMod val="80000"/>
-                <a:lumOff val="20000"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="64000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1470,8 +1467,8 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent2">
-                <a:lumMod val="80000"/>
+              <a:schemeClr val="accent1">
+                <a:tint val="37000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:ln>
@@ -1587,16 +1584,15 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
-          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="1"/>
+          <c:showVal val="0"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
+        <c:gapWidth val="47"/>
+        <c:overlap val="-49"/>
         <c:axId val="2043783583"/>
         <c:axId val="1113953007"/>
       </c:barChart>
@@ -1606,7 +1602,124 @@
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-ID"/>
+                  <a:t>zona</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1113953007"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="10"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1113953007"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1628,7 +1741,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-ID"/>
-                  <a:t>size</a:t>
+                  <a:t>akurasi</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1662,139 +1775,21 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1113953007"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1113953007"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-ID"/>
-                  <a:t>akurasi</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
           <a:ln>
-            <a:noFill/>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
         <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
             <a:pPr>
@@ -1826,7 +1821,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1873,10 +1868,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1901,42 +1893,8 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="14">
   <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
 </cs:colorStyle>
 </file>
 
@@ -2447,16 +2405,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1228725</xdr:colOff>
-      <xdr:row>192</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>38098</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>216</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2506,7 +2464,7 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A127:X162">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:X116">
     <sortCondition ref="D1:D190"/>
   </sortState>
   <tableColumns count="24">
@@ -2839,7 +2797,7 @@
   <dimension ref="A1:X190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C191" sqref="C191"/>
+      <selection activeCell="R196" sqref="R196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2928,7 +2886,7 @@
     </row>
     <row r="2" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B2" s="4">
         <v>9</v>
@@ -2937,67 +2895,67 @@
         <v>64</v>
       </c>
       <c r="D2" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E2" s="2">
-        <v>87</v>
+        <v>40.96</v>
       </c>
       <c r="F2" s="2">
-        <v>0.87</v>
+        <v>0.41</v>
       </c>
       <c r="G2" s="2">
-        <v>0.87</v>
+        <v>0.41</v>
       </c>
       <c r="H2" s="2">
-        <v>12.26</v>
+        <v>0.71</v>
       </c>
       <c r="I2" s="2">
-        <v>85.64</v>
+        <v>37.590000000000003</v>
       </c>
       <c r="J2" s="2">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="2">
-        <v>0.86</v>
+        <v>0.38</v>
       </c>
       <c r="L2" s="2">
-        <v>13.32</v>
+        <v>0.79</v>
       </c>
       <c r="M2" s="2">
-        <v>83.71</v>
+        <v>39.83</v>
       </c>
       <c r="N2" s="2">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="O2" s="2">
-        <v>0.84</v>
+        <v>0.4</v>
       </c>
       <c r="P2" s="2">
-        <v>13.65</v>
+        <v>0.8</v>
       </c>
       <c r="Q2" s="2">
-        <v>82.61</v>
+        <v>39.75</v>
       </c>
       <c r="R2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="U2" s="2">
+        <v>41.23</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="W2" s="2">
+        <v>0.41</v>
+      </c>
+      <c r="X2" s="2">
         <v>0.83</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="T2" s="2">
-        <v>13.84</v>
-      </c>
-      <c r="U2" s="2">
-        <v>81.62</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="W2" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="X2" s="2">
-        <v>13.98</v>
       </c>
     </row>
     <row r="3" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3076,7 +3034,7 @@
     </row>
     <row r="4" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B4" s="4">
         <v>9</v>
@@ -3085,67 +3043,67 @@
         <v>128</v>
       </c>
       <c r="D4" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>83.29</v>
+        <v>33.42</v>
       </c>
       <c r="F4" s="2">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="G4" s="2">
-        <v>0.83</v>
+        <v>0.33</v>
       </c>
       <c r="H4" s="2">
-        <v>46.67</v>
+        <v>0.52</v>
       </c>
       <c r="I4" s="2">
-        <v>81.66</v>
+        <v>31.34</v>
       </c>
       <c r="J4" s="2">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="K4" s="2">
-        <v>0.82</v>
+        <v>0.31</v>
       </c>
       <c r="L4" s="2">
-        <v>49.06</v>
+        <v>0.6</v>
       </c>
       <c r="M4" s="2">
-        <v>80.489999999999995</v>
+        <v>33.119999999999997</v>
       </c>
       <c r="N4" s="2">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="O4" s="2">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="P4" s="2">
-        <v>49.87</v>
+        <v>0.73</v>
       </c>
       <c r="Q4" s="2">
-        <v>79.08</v>
+        <v>34.07</v>
       </c>
       <c r="R4" s="2">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
       <c r="S4" s="2">
-        <v>0.79</v>
+        <v>0.34</v>
       </c>
       <c r="T4" s="2">
-        <v>50.27</v>
+        <v>0.76</v>
       </c>
       <c r="U4" s="2">
-        <v>78.14</v>
+        <v>34.630000000000003</v>
       </c>
       <c r="V4" s="2">
-        <v>0.78</v>
+        <v>0.35</v>
       </c>
       <c r="W4" s="2">
-        <v>0.78</v>
+        <v>0.35</v>
       </c>
       <c r="X4" s="2">
-        <v>50.74</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="5" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3372,7 +3330,7 @@
     </row>
     <row r="8" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B8" s="4">
         <v>9</v>
@@ -3381,67 +3339,67 @@
         <v>64</v>
       </c>
       <c r="D8" s="4">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E8" s="2">
-        <v>80.56</v>
+        <v>59.04</v>
       </c>
       <c r="F8" s="2">
-        <v>0.81</v>
+        <v>0.59</v>
       </c>
       <c r="G8" s="2">
-        <v>0.81</v>
+        <v>0.59</v>
       </c>
       <c r="H8" s="2">
-        <v>53.31</v>
+        <v>3.41</v>
       </c>
       <c r="I8" s="2">
-        <v>78.209999999999994</v>
+        <v>59.57</v>
       </c>
       <c r="J8" s="2">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="K8" s="2">
-        <v>0.78</v>
+        <v>0.6</v>
       </c>
       <c r="L8" s="2">
-        <v>57.42</v>
+        <v>3.51</v>
       </c>
       <c r="M8" s="2">
-        <v>77.61</v>
+        <v>61.01</v>
       </c>
       <c r="N8" s="2">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="O8" s="2">
-        <v>0.78</v>
+        <v>0.61</v>
       </c>
       <c r="P8" s="2">
-        <v>57.44</v>
+        <v>3.79</v>
       </c>
       <c r="Q8" s="2">
-        <v>75.900000000000006</v>
+        <v>60.97</v>
       </c>
       <c r="R8" s="2">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="S8" s="2">
-        <v>0.76</v>
+        <v>0.61</v>
       </c>
       <c r="T8" s="2">
-        <v>56.79</v>
+        <v>3.67</v>
       </c>
       <c r="U8" s="2">
-        <v>73.099999999999994</v>
+        <v>59.49</v>
       </c>
       <c r="V8" s="2">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="W8" s="2">
-        <v>0.73</v>
+        <v>0.59</v>
       </c>
       <c r="X8" s="2">
-        <v>59.03</v>
+        <v>3.69</v>
       </c>
     </row>
     <row r="9" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -4038,7 +3996,7 @@
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B17" s="4">
         <v>9</v>
@@ -4047,67 +4005,67 @@
         <v>128</v>
       </c>
       <c r="D17" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E17" s="2">
-        <v>70.599999999999994</v>
+        <v>52.14</v>
       </c>
       <c r="F17" s="2">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="G17" s="2">
-        <v>0.71</v>
+        <v>0.52</v>
       </c>
       <c r="H17" s="2">
-        <v>12.79</v>
+        <v>3.07</v>
       </c>
       <c r="I17" s="2">
-        <v>72.45</v>
+        <v>53.81</v>
       </c>
       <c r="J17" s="2">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="K17" s="2">
-        <v>0.72</v>
+        <v>0.54</v>
       </c>
       <c r="L17" s="2">
-        <v>13.48</v>
+        <v>3.32</v>
       </c>
       <c r="M17" s="2">
-        <v>72.64</v>
+        <v>56.35</v>
       </c>
       <c r="N17" s="2">
-        <v>0.73</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="O17" s="2">
-        <v>0.73</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="P17" s="2">
-        <v>13.17</v>
+        <v>3.36</v>
       </c>
       <c r="Q17" s="2">
-        <v>72.680000000000007</v>
+        <v>57.26</v>
       </c>
       <c r="R17" s="2">
-        <v>0.73</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="S17" s="2">
-        <v>0.73</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="T17" s="2">
-        <v>13.5</v>
+        <v>3.27</v>
       </c>
       <c r="U17" s="2">
-        <v>73.209999999999994</v>
+        <v>57.14</v>
       </c>
       <c r="V17" s="2">
-        <v>0.73</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="W17" s="2">
-        <v>0.73</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="X17" s="2">
-        <v>13.45</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="18" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -5666,7 +5624,7 @@
     </row>
     <row r="39" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B39" s="4">
         <v>9</v>
@@ -5675,67 +5633,67 @@
         <v>64</v>
       </c>
       <c r="D39" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E39" s="2">
-        <v>59.04</v>
+        <v>87</v>
       </c>
       <c r="F39" s="2">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="G39" s="2">
-        <v>0.59</v>
+        <v>0.87</v>
       </c>
       <c r="H39" s="2">
-        <v>3.41</v>
+        <v>12.26</v>
       </c>
       <c r="I39" s="2">
-        <v>59.57</v>
+        <v>85.64</v>
       </c>
       <c r="J39" s="2">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="K39" s="2">
-        <v>0.6</v>
+        <v>0.86</v>
       </c>
       <c r="L39" s="2">
-        <v>3.51</v>
+        <v>13.32</v>
       </c>
       <c r="M39" s="2">
-        <v>61.01</v>
+        <v>83.71</v>
       </c>
       <c r="N39" s="2">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="O39" s="2">
-        <v>0.61</v>
+        <v>0.84</v>
       </c>
       <c r="P39" s="2">
-        <v>3.79</v>
+        <v>13.65</v>
       </c>
       <c r="Q39" s="2">
-        <v>60.97</v>
+        <v>82.61</v>
       </c>
       <c r="R39" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="S39" s="2">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="T39" s="2">
-        <v>3.67</v>
+        <v>13.84</v>
       </c>
       <c r="U39" s="2">
-        <v>59.49</v>
+        <v>81.62</v>
       </c>
       <c r="V39" s="2">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="W39" s="2">
-        <v>0.59</v>
+        <v>0.82</v>
       </c>
       <c r="X39" s="2">
-        <v>3.69</v>
+        <v>13.98</v>
       </c>
     </row>
     <row r="40" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6554,7 +6512,7 @@
     </row>
     <row r="51" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B51" s="4">
         <v>9</v>
@@ -6563,67 +6521,67 @@
         <v>128</v>
       </c>
       <c r="D51" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E51" s="2">
-        <v>52.14</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="F51" s="2">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="G51" s="2">
-        <v>0.52</v>
+        <v>0.71</v>
       </c>
       <c r="H51" s="2">
-        <v>3.07</v>
+        <v>12.79</v>
       </c>
       <c r="I51" s="2">
-        <v>53.81</v>
+        <v>72.45</v>
       </c>
       <c r="J51" s="2">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="K51" s="2">
-        <v>0.54</v>
+        <v>0.72</v>
       </c>
       <c r="L51" s="2">
-        <v>3.32</v>
+        <v>13.48</v>
       </c>
       <c r="M51" s="2">
-        <v>56.35</v>
+        <v>72.64</v>
       </c>
       <c r="N51" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.73</v>
       </c>
       <c r="O51" s="2">
-        <v>0.56000000000000005</v>
+        <v>0.73</v>
       </c>
       <c r="P51" s="2">
-        <v>3.36</v>
+        <v>13.17</v>
       </c>
       <c r="Q51" s="2">
-        <v>57.26</v>
+        <v>72.680000000000007</v>
       </c>
       <c r="R51" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="S51" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="T51" s="2">
-        <v>3.27</v>
+        <v>13.5</v>
       </c>
       <c r="U51" s="2">
-        <v>57.14</v>
+        <v>73.209999999999994</v>
       </c>
       <c r="V51" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="W51" s="2">
-        <v>0.56999999999999995</v>
+        <v>0.73</v>
       </c>
       <c r="X51" s="2">
-        <v>3.25</v>
+        <v>13.45</v>
       </c>
     </row>
     <row r="52" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -9884,7 +9842,7 @@
     </row>
     <row r="96" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B96" s="4">
         <v>9</v>
@@ -9893,67 +9851,67 @@
         <v>64</v>
       </c>
       <c r="D96" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2">
-        <v>40.96</v>
+        <v>80.56</v>
       </c>
       <c r="F96" s="2">
-        <v>0.41</v>
+        <v>0.81</v>
       </c>
       <c r="G96" s="2">
-        <v>0.41</v>
+        <v>0.81</v>
       </c>
       <c r="H96" s="2">
-        <v>0.71</v>
+        <v>53.31</v>
       </c>
       <c r="I96" s="2">
-        <v>37.590000000000003</v>
+        <v>78.209999999999994</v>
       </c>
       <c r="J96" s="2">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="K96" s="2">
-        <v>0.38</v>
+        <v>0.78</v>
       </c>
       <c r="L96" s="2">
-        <v>0.79</v>
+        <v>57.42</v>
       </c>
       <c r="M96" s="2">
-        <v>39.83</v>
+        <v>77.61</v>
       </c>
       <c r="N96" s="2">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="O96" s="2">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="P96" s="2">
-        <v>0.8</v>
+        <v>57.44</v>
       </c>
       <c r="Q96" s="2">
-        <v>39.75</v>
+        <v>75.900000000000006</v>
       </c>
       <c r="R96" s="2">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="S96" s="2">
-        <v>0.4</v>
+        <v>0.76</v>
       </c>
       <c r="T96" s="2">
-        <v>0.82</v>
+        <v>56.79</v>
       </c>
       <c r="U96" s="2">
-        <v>41.23</v>
+        <v>73.099999999999994</v>
       </c>
       <c r="V96" s="2">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
       <c r="W96" s="2">
-        <v>0.41</v>
+        <v>0.73</v>
       </c>
       <c r="X96" s="2">
-        <v>0.83</v>
+        <v>59.03</v>
       </c>
     </row>
     <row r="97" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -11364,7 +11322,7 @@
     </row>
     <row r="116" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B116" s="4">
         <v>9</v>
@@ -11373,67 +11331,67 @@
         <v>128</v>
       </c>
       <c r="D116" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E116" s="2">
-        <v>33.42</v>
+        <v>83.29</v>
       </c>
       <c r="F116" s="2">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="G116" s="2">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="H116" s="2">
-        <v>0.52</v>
+        <v>46.67</v>
       </c>
       <c r="I116" s="2">
-        <v>31.34</v>
+        <v>81.66</v>
       </c>
       <c r="J116" s="2">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="K116" s="2">
-        <v>0.31</v>
+        <v>0.82</v>
       </c>
       <c r="L116" s="2">
-        <v>0.6</v>
+        <v>49.06</v>
       </c>
       <c r="M116" s="2">
-        <v>33.119999999999997</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="N116" s="2">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="O116" s="2">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="P116" s="2">
-        <v>0.73</v>
+        <v>49.87</v>
       </c>
       <c r="Q116" s="2">
-        <v>34.07</v>
+        <v>79.08</v>
       </c>
       <c r="R116" s="2">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="S116" s="2">
-        <v>0.34</v>
+        <v>0.79</v>
       </c>
       <c r="T116" s="2">
-        <v>0.76</v>
+        <v>50.27</v>
       </c>
       <c r="U116" s="2">
-        <v>34.630000000000003</v>
+        <v>78.14</v>
       </c>
       <c r="V116" s="2">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="W116" s="2">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="X116" s="2">
-        <v>0.92</v>
+        <v>50.74</v>
       </c>
     </row>
     <row r="117" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -16926,7 +16884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62874FB3-62A7-4AC1-AC83-E39D3A88BD7D}">
   <dimension ref="A1:C190"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C190"/>
     </sheetView>
   </sheetViews>

--- a/data klasifikasi (version 1).xlsx
+++ b/data klasifikasi (version 1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LINOVPROJECT\skripsi ilham\Skripsi-Aksara-Bima\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CCEACE4-D8F2-4BD2-B95F-F9C2B45A5854}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E416D1A2-6D48-42FE-A107-63A940308FA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{959F421C-5A5E-4009-AD8F-A914032E0B61}"/>
   </bookViews>
@@ -882,8 +882,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-ID"/>
-              <a:t>Skenario zona dengan ukuran citra 32x32 pixcel</a:t>
+              <a:t>Skenario Zona</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="en-ID" baseline="0"/>
+              <a:t> Ukuran Citra 32x32 piksel</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-ID"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -1584,8 +1589,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="outEnd"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1866,9 +1872,9 @@
     <a:solidFill>
       <a:schemeClr val="bg1"/>
     </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <a:ln w="3175" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2406,15 +2412,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>193</xdr:row>
-      <xdr:rowOff>38098</xdr:rowOff>
+      <xdr:colOff>392678</xdr:colOff>
+      <xdr:row>191</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>223</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>581026</xdr:colOff>
+      <xdr:row>212</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2464,8 +2470,8 @@
       </filters>
     </filterColumn>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:X116">
-    <sortCondition ref="D1:D190"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A168:X188">
+    <sortCondition ref="C1:C190"/>
   </sortState>
   <tableColumns count="24">
     <tableColumn id="1" xr3:uid="{A207B1C5-1DCC-4D18-A80B-FE5338AA63D6}" name="datasets" dataDxfId="23"/>
@@ -2797,7 +2803,7 @@
   <dimension ref="A1:X190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R196" sqref="R196"/>
+      <selection activeCell="N204" sqref="N204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3626,7 +3632,7 @@
     </row>
     <row r="12" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B12" s="4">
         <v>9</v>
@@ -3635,67 +3641,67 @@
         <v>256</v>
       </c>
       <c r="D12" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2">
-        <v>75.709999999999994</v>
+        <v>30.24</v>
       </c>
       <c r="F12" s="2">
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
       <c r="G12" s="2">
-        <v>0.76</v>
+        <v>0.3</v>
       </c>
       <c r="H12" s="2">
-        <v>49.63</v>
+        <v>0.41</v>
       </c>
       <c r="I12" s="2">
-        <v>75.41</v>
+        <v>29.75</v>
       </c>
       <c r="J12" s="2">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="K12" s="2">
-        <v>0.75</v>
+        <v>0.3</v>
       </c>
       <c r="L12" s="2">
-        <v>50.8</v>
+        <v>0.5</v>
       </c>
       <c r="M12" s="2">
-        <v>74.760000000000005</v>
+        <v>29.25</v>
       </c>
       <c r="N12" s="2">
-        <v>0.75</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="O12" s="2">
-        <v>0.75</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="P12" s="2">
-        <v>50.83</v>
+        <v>0.6</v>
       </c>
       <c r="Q12" s="2">
-        <v>74.69</v>
+        <v>29.37</v>
       </c>
       <c r="R12" s="2">
-        <v>0.75</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S12" s="2">
-        <v>0.75</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T12" s="2">
-        <v>51.09</v>
+        <v>0.63</v>
       </c>
       <c r="U12" s="2">
-        <v>73.66</v>
+        <v>29.97</v>
       </c>
       <c r="V12" s="2">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="W12" s="2">
-        <v>0.74</v>
+        <v>0.3</v>
       </c>
       <c r="X12" s="2">
-        <v>50.89</v>
+        <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="13" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -3922,7 +3928,7 @@
     </row>
     <row r="16" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B16" s="4">
         <v>9</v>
@@ -3931,67 +3937,67 @@
         <v>256</v>
       </c>
       <c r="D16" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2">
-        <v>70.67</v>
+        <v>52.86</v>
       </c>
       <c r="F16" s="2">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="G16" s="2">
-        <v>0.71</v>
+        <v>0.53</v>
       </c>
       <c r="H16" s="2">
-        <v>12.89</v>
+        <v>2.69</v>
       </c>
       <c r="I16" s="2">
-        <v>69.53</v>
+        <v>52.25</v>
       </c>
       <c r="J16" s="2">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="K16" s="2">
-        <v>0.7</v>
+        <v>0.52</v>
       </c>
       <c r="L16" s="2">
-        <v>13.23</v>
+        <v>2.83</v>
       </c>
       <c r="M16" s="2">
-        <v>70.97</v>
+        <v>54.38</v>
       </c>
       <c r="N16" s="2">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="O16" s="2">
-        <v>0.71</v>
+        <v>0.54</v>
       </c>
       <c r="P16" s="2">
-        <v>13.54</v>
+        <v>3.21</v>
       </c>
       <c r="Q16" s="2">
-        <v>72.150000000000006</v>
+        <v>55.13</v>
       </c>
       <c r="R16" s="2">
-        <v>0.72</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="S16" s="2">
-        <v>0.72</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="T16" s="2">
-        <v>13.29</v>
+        <v>3.17</v>
       </c>
       <c r="U16" s="2">
-        <v>73.44</v>
+        <v>54.98</v>
       </c>
       <c r="V16" s="2">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="W16" s="2">
-        <v>0.73</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="X16" s="2">
-        <v>13.49</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="17" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -6364,7 +6370,7 @@
     </row>
     <row r="49" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B49" s="4">
         <v>9</v>
@@ -6373,67 +6379,67 @@
         <v>256</v>
       </c>
       <c r="D49" s="4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E49" s="2">
-        <v>52.86</v>
+        <v>70.67</v>
       </c>
       <c r="F49" s="2">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="G49" s="2">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="H49" s="2">
-        <v>2.69</v>
+        <v>12.89</v>
       </c>
       <c r="I49" s="2">
-        <v>52.25</v>
+        <v>69.53</v>
       </c>
       <c r="J49" s="2">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="K49" s="2">
-        <v>0.52</v>
+        <v>0.7</v>
       </c>
       <c r="L49" s="2">
-        <v>2.83</v>
+        <v>13.23</v>
       </c>
       <c r="M49" s="2">
-        <v>54.38</v>
+        <v>70.97</v>
       </c>
       <c r="N49" s="2">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="O49" s="2">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="P49" s="2">
-        <v>3.21</v>
+        <v>13.54</v>
       </c>
       <c r="Q49" s="2">
-        <v>55.13</v>
+        <v>72.150000000000006</v>
       </c>
       <c r="R49" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="S49" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.72</v>
       </c>
       <c r="T49" s="2">
-        <v>3.17</v>
+        <v>13.29</v>
       </c>
       <c r="U49" s="2">
-        <v>54.98</v>
+        <v>73.44</v>
       </c>
       <c r="V49" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="W49" s="2">
-        <v>0.55000000000000004</v>
+        <v>0.73</v>
       </c>
       <c r="X49" s="2">
-        <v>3.11</v>
+        <v>13.49</v>
       </c>
     </row>
     <row r="50" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -12432,7 +12438,7 @@
     </row>
     <row r="131" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B131" s="4">
         <v>9</v>
@@ -12441,67 +12447,67 @@
         <v>256</v>
       </c>
       <c r="D131" s="4">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E131" s="2">
-        <v>30.24</v>
+        <v>75.709999999999994</v>
       </c>
       <c r="F131" s="2">
-        <v>0.3</v>
+        <v>0.76</v>
       </c>
       <c r="G131" s="2">
-        <v>0.3</v>
+        <v>0.76</v>
       </c>
       <c r="H131" s="2">
-        <v>0.41</v>
+        <v>49.63</v>
       </c>
       <c r="I131" s="2">
-        <v>29.75</v>
+        <v>75.41</v>
       </c>
       <c r="J131" s="2">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="K131" s="2">
-        <v>0.3</v>
+        <v>0.75</v>
       </c>
       <c r="L131" s="2">
-        <v>0.5</v>
+        <v>50.8</v>
       </c>
       <c r="M131" s="2">
-        <v>29.25</v>
+        <v>74.760000000000005</v>
       </c>
       <c r="N131" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="O131" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="P131" s="2">
-        <v>0.6</v>
+        <v>50.83</v>
       </c>
       <c r="Q131" s="2">
-        <v>29.37</v>
+        <v>74.69</v>
       </c>
       <c r="R131" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="S131" s="2">
-        <v>0.28999999999999998</v>
+        <v>0.75</v>
       </c>
       <c r="T131" s="2">
-        <v>0.63</v>
+        <v>51.09</v>
       </c>
       <c r="U131" s="2">
-        <v>29.97</v>
+        <v>73.66</v>
       </c>
       <c r="V131" s="2">
-        <v>0.3</v>
+        <v>0.74</v>
       </c>
       <c r="W131" s="2">
-        <v>0.3</v>
+        <v>0.74</v>
       </c>
       <c r="X131" s="2">
-        <v>0.56999999999999995</v>
+        <v>50.89</v>
       </c>
     </row>
     <row r="132" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
@@ -15984,73 +15990,73 @@
     </row>
     <row r="179" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B179" s="4">
         <v>9</v>
       </c>
       <c r="C179" s="5">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D179" s="5">
         <v>0</v>
       </c>
       <c r="E179" s="2">
-        <v>16.07</v>
+        <v>18.760000000000002</v>
       </c>
       <c r="F179" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="G179" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="H179" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="I179" s="2">
+        <v>16.22</v>
+      </c>
+      <c r="J179" s="2">
         <v>0.16</v>
       </c>
-      <c r="G179" s="2">
+      <c r="K179" s="2">
         <v>0.16</v>
       </c>
-      <c r="H179" s="2">
-        <v>0.11</v>
-      </c>
-      <c r="I179" s="2">
-        <v>12.43</v>
-      </c>
-      <c r="J179" s="2">
-        <v>0.12</v>
-      </c>
-      <c r="K179" s="2">
-        <v>0.12</v>
-      </c>
       <c r="L179" s="2">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M179" s="2">
-        <v>13.6</v>
+        <v>16.37</v>
       </c>
       <c r="N179" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="O179" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="P179" s="2">
-        <v>0.13</v>
+        <v>0.15</v>
       </c>
       <c r="Q179" s="2">
-        <v>13.91</v>
+        <v>15.65</v>
       </c>
       <c r="R179" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="S179" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="T179" s="2">
-        <v>0.14000000000000001</v>
+        <v>0.16</v>
       </c>
       <c r="U179" s="2">
-        <v>13</v>
+        <v>15.8</v>
       </c>
       <c r="V179" s="2">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="W179" s="2">
-        <v>0.13</v>
+        <v>0.16</v>
       </c>
       <c r="X179" s="2">
         <v>0.16</v>
@@ -16650,73 +16656,73 @@
     </row>
     <row r="188" spans="1:24" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B188" s="4">
         <v>9</v>
       </c>
       <c r="C188" s="5">
-        <v>128</v>
+        <v>256</v>
       </c>
       <c r="D188" s="5">
         <v>0</v>
       </c>
       <c r="E188" s="2">
-        <v>18.760000000000002</v>
+        <v>16.07</v>
       </c>
       <c r="F188" s="2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="G188" s="2">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
       <c r="H188" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="I188" s="2">
+        <v>12.43</v>
+      </c>
+      <c r="J188" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="K188" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="L188" s="2">
+        <v>0.12</v>
+      </c>
+      <c r="M188" s="2">
+        <v>13.6</v>
+      </c>
+      <c r="N188" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O188" s="2">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P188" s="2">
         <v>0.13</v>
       </c>
-      <c r="I188" s="2">
-        <v>16.22</v>
-      </c>
-      <c r="J188" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="K188" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="L188" s="2">
+      <c r="Q188" s="2">
+        <v>13.91</v>
+      </c>
+      <c r="R188" s="2">
         <v>0.14000000000000001</v>
       </c>
-      <c r="M188" s="2">
-        <v>16.37</v>
-      </c>
-      <c r="N188" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="O188" s="2">
-        <v>0.16</v>
-      </c>
-      <c r="P188" s="2">
-        <v>0.15</v>
-      </c>
-      <c r="Q188" s="2">
-        <v>15.65</v>
-      </c>
-      <c r="R188" s="2">
-        <v>0.16</v>
-      </c>
       <c r="S188" s="2">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T188" s="2">
-        <v>0.16</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="U188" s="2">
-        <v>15.8</v>
+        <v>13</v>
       </c>
       <c r="V188" s="2">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="W188" s="2">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="X188" s="2">
         <v>0.16</v>
